--- a/AutoAvaliacao/autoavaliacao_g74.xlsx
+++ b/AutoAvaliacao/autoavaliacao_g74.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fox\RiderProjects\sem5pi-24-25-3NA_G74\AutoAvaliacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\pedro\Desktop\Repos\sem5pi-24-25-3NA_G74\AutoAvaliacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA41D32-5C2D-4E41-BB94-E19AE13D4ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42226E20-6441-4D76-A347-B294641AD366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{762A2CA2-1733-4FFE-BE94-2578DC15CCF2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{762A2CA2-1733-4FFE-BE94-2578DC15CCF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Número de aluno</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Outstanding</t>
+  </si>
+  <si>
+    <t>Very good</t>
   </si>
 </sst>
 </file>
@@ -127,9 +130,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -167,7 +170,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -273,7 +276,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -415,7 +418,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -426,7 +429,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +501,19 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
       <c r="F4" s="1"/>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">

--- a/AutoAvaliacao/autoavaliacao_g74.xlsx
+++ b/AutoAvaliacao/autoavaliacao_g74.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\pedro\Desktop\Repos\sem5pi-24-25-3NA_G74\AutoAvaliacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\ISEP\Ano 3 - 1º Semestre\sem5pi-24-25-3NA_G74\AutoAvaliacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42226E20-6441-4D76-A347-B294641AD366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7A35C2-0992-4F8B-8980-47771244DD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{762A2CA2-1733-4FFE-BE94-2578DC15CCF2}"/>
+    <workbookView xWindow="22290" yWindow="-12190" windowWidth="38620" windowHeight="21100" xr2:uid="{762A2CA2-1733-4FFE-BE94-2578DC15CCF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Número de aluno</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Very good</t>
+  </si>
+  <si>
+    <t>Very Good</t>
   </si>
 </sst>
 </file>
@@ -130,7 +133,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -429,22 +432,22 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -467,7 +470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -491,7 +494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -515,7 +518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -527,7 +530,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -536,6 +539,18 @@
       </c>
       <c r="C6" t="s">
         <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
       </c>
       <c r="H6" s="1"/>
     </row>

--- a/AutoAvaliacao/autoavaliacao_g74.xlsx
+++ b/AutoAvaliacao/autoavaliacao_g74.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\ISEP\Ano 3 - 1º Semestre\sem5pi-24-25-3NA_G74\AutoAvaliacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josepedropina/Documents/sem5pi-24-25-3NA_G74/AutoAvaliacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7A35C2-0992-4F8B-8980-47771244DD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD34612-E748-B143-A089-BB692014070E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22290" yWindow="-12190" windowWidth="38620" windowHeight="21100" xr2:uid="{762A2CA2-1733-4FFE-BE94-2578DC15CCF2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{762A2CA2-1733-4FFE-BE94-2578DC15CCF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>Número de aluno</t>
   </si>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -431,23 +431,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58527678-45BE-4E6C-B1B6-94E01193444B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -470,7 +470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -494,7 +494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -518,7 +518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -528,9 +528,23 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
